--- a/MainTop/18.07.2025 бирки/print_print_sorted.xlsx
+++ b/MainTop/18.07.2025 бирки/print_print_sorted.xlsx
@@ -5,17 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\18.07.2025 бирки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\18.07.2025 бирки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77F6D6E-65A3-4244-9759-48A20B6C00FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604935BD-F501-4427-B508-515FC38EEF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -141,12 +152,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -452,7 +464,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +472,7 @@
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -468,6 +480,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
@@ -479,258 +492,259 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>80</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
         <f>B2*2</f>
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E15" si="0">B3*2</f>
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>